--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H2">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J2">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>275.926642397952</v>
+        <v>65.27176930503124</v>
       </c>
       <c r="R2">
-        <v>2483.339781581568</v>
+        <v>587.4459237452811</v>
       </c>
       <c r="S2">
-        <v>0.002618208978549861</v>
+        <v>0.0007391137212867595</v>
       </c>
       <c r="T2">
-        <v>0.002618208978549861</v>
+        <v>0.0007391137212867595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H3">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J3">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>260.7244623974293</v>
+        <v>113.6820230556447</v>
       </c>
       <c r="R3">
-        <v>2346.520161576864</v>
+        <v>1023.138207500802</v>
       </c>
       <c r="S3">
-        <v>0.002473958739337748</v>
+        <v>0.001287293787171601</v>
       </c>
       <c r="T3">
-        <v>0.002473958739337749</v>
+        <v>0.001287293787171601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.452389333333333</v>
+        <v>1.069299666666667</v>
       </c>
       <c r="H4">
-        <v>7.357168</v>
+        <v>3.207899</v>
       </c>
       <c r="I4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="J4">
-        <v>0.007993767302975028</v>
+        <v>0.003616700200628781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>305.7924854951431</v>
+        <v>140.4401173206635</v>
       </c>
       <c r="R4">
-        <v>2752.132369456288</v>
+        <v>1263.961055885972</v>
       </c>
       <c r="S4">
-        <v>0.002901599585087418</v>
+        <v>0.00159029269217042</v>
       </c>
       <c r="T4">
-        <v>0.002901599585087418</v>
+        <v>0.00159029269217042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J5">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>27404.5826907325</v>
+        <v>14867.73901845368</v>
       </c>
       <c r="R5">
-        <v>246641.2442165925</v>
+        <v>133809.6511660831</v>
       </c>
       <c r="S5">
-        <v>0.2600362322055367</v>
+        <v>0.1683568567246209</v>
       </c>
       <c r="T5">
-        <v>0.2600362322055367</v>
+        <v>0.1683568567246209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J6">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>25894.72704474209</v>
@@ -818,10 +818,10 @@
         <v>233052.5434026788</v>
       </c>
       <c r="S6">
-        <v>0.2457095344488738</v>
+        <v>0.2932224493303102</v>
       </c>
       <c r="T6">
-        <v>0.2457095344488738</v>
+        <v>0.2932224493303102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>730.7018890000001</v>
       </c>
       <c r="I7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364892</v>
       </c>
       <c r="J7">
-        <v>0.7939278902575405</v>
+        <v>0.8238194745364891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>30370.80936486787</v>
+        <v>31989.74126604063</v>
       </c>
       <c r="R7">
-        <v>273337.2842838108</v>
+        <v>287907.6713943657</v>
       </c>
       <c r="S7">
-        <v>0.28818212360313</v>
+        <v>0.362240168481558</v>
       </c>
       <c r="T7">
-        <v>0.2881821236031301</v>
+        <v>0.362240168481558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H8">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J8">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>6837.213279993504</v>
+        <v>3114.315693347859</v>
       </c>
       <c r="R8">
-        <v>61534.91951994153</v>
+        <v>28028.84124013073</v>
       </c>
       <c r="S8">
-        <v>0.06487685655276978</v>
+        <v>0.03526537561154577</v>
       </c>
       <c r="T8">
-        <v>0.06487685655276978</v>
+        <v>0.03526537561154577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H9">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J9">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>6460.516973753825</v>
+        <v>5424.116922573406</v>
       </c>
       <c r="R9">
-        <v>58144.65276378443</v>
+        <v>48817.05230316065</v>
       </c>
       <c r="S9">
-        <v>0.06130246575595481</v>
+        <v>0.0614207227109545</v>
       </c>
       <c r="T9">
-        <v>0.06130246575595483</v>
+        <v>0.06142072271095451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.76799533333334</v>
+        <v>51.01955666666666</v>
       </c>
       <c r="H10">
-        <v>182.303986</v>
+        <v>153.05867</v>
       </c>
       <c r="I10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="J10">
-        <v>0.1980783424394845</v>
+        <v>0.1725638252628821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>7577.261929401609</v>
+        <v>6700.827417491861</v>
       </c>
       <c r="R10">
-        <v>68195.35736461448</v>
+        <v>60307.44675742675</v>
       </c>
       <c r="S10">
-        <v>0.07189902013075988</v>
+        <v>0.07587772694038181</v>
       </c>
       <c r="T10">
-        <v>0.0718990201307599</v>
+        <v>0.07587772694038181</v>
       </c>
     </row>
   </sheetData>
